--- a/Modelos R/Metrics_RaschVSGRM.xlsx
+++ b/Modelos R/Metrics_RaschVSGRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1858daaa768724f/GITHUB/orange/orange/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monte\Documents\Proyecto_Orange\orange\Modelos R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0638D42F-3D44-4E9E-954B-FA7BBC953F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5BD806-C0F0-4DCB-9EDC-45ED42B268F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{370CBE59-3A43-431A-806F-72670CB00270}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{370CBE59-3A43-431A-806F-72670CB00270}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>AIC</t>
   </si>
@@ -53,14 +53,98 @@
     <t>loglike</t>
   </si>
   <si>
-    <t>GANA</t>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>Mejor Modelo</t>
+  </si>
+  <si>
+    <t>Aspecto</t>
+  </si>
+  <si>
+    <t>Modelo Rasch (PCM)</t>
+  </si>
+  <si>
+    <t>Modelo GRM (Graded Response Model)</t>
+  </si>
+  <si>
+    <t>Tipo de modelo</t>
+  </si>
+  <si>
+    <t>1 parámetro (solo dificultad)</t>
+  </si>
+  <si>
+    <t>2 parámetros (dificultad y discriminación)</t>
+  </si>
+  <si>
+    <t>Supuesto sobre discriminación</t>
+  </si>
+  <si>
+    <t>Todos los ítems discriminan igual</t>
+  </si>
+  <si>
+    <t>Cada ítem tiene su propia discriminación</t>
+  </si>
+  <si>
+    <t>Adecuado cuando</t>
+  </si>
+  <si>
+    <t>Los ítems son homogéneos en calidad psicométrica</t>
+  </si>
+  <si>
+    <t>Los ítems varían en su poder discriminativo</t>
+  </si>
+  <si>
+    <t>Ventaja principal</t>
+  </si>
+  <si>
+    <t>Simplicidad, interpretabilidad y validación de instrumentos</t>
+  </si>
+  <si>
+    <t>Flexibilidad, mayor precisión en la medición</t>
+  </si>
+  <si>
+    <t>Complejidad del modelo</t>
+  </si>
+  <si>
+    <t>Baja (menos parámetros)</t>
+  </si>
+  <si>
+    <t>Media (más parámetros)</t>
+  </si>
+  <si>
+    <t>Resultados en este proyecto</t>
+  </si>
+  <si>
+    <t>Log-likelihood ligeramente mejor, pero peor AIC y BIC</t>
+  </si>
+  <si>
+    <t>Mejor AIC y BIC, mejor ajuste general</t>
+  </si>
+  <si>
+    <t>Interpretación de ajuste</t>
+  </si>
+  <si>
+    <t>Escala objetiva pero ajuste limitado</t>
+  </si>
+  <si>
+    <t>Mejor ajuste a los datos reales</t>
+  </si>
+  <si>
+    <t>Modelo recomendado</t>
+  </si>
+  <si>
+    <t>Útil como referencia y validación inicial</t>
+  </si>
+  <si>
+    <t>Modelo seleccionado para análisis final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +152,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,8 +205,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,65 +566,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCE35AA-E3A5-42D5-9BF5-731DA8358E73}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="B4:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C6" s="9">
         <v>11048</v>
       </c>
-      <c r="D2">
+      <c r="D6" s="9">
         <v>12150</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C7" s="8">
         <v>11846</v>
       </c>
-      <c r="D3">
+      <c r="D7" s="8">
         <v>14244</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C8" s="9">
         <v>-5130</v>
       </c>
-      <c r="D4">
+      <c r="D8" s="9">
         <v>-5040</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" s="9" t="s">
         <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
